--- a/Charts/dados_portatil_D.xlsx
+++ b/Charts/dados_portatil_D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\parallelComputing1920\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A53172-2F58-4DDD-96DF-1E147B8F3C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C96F01A4-156D-4B8F-A630-FCF89E8FA4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,13 +53,13 @@
     <t>Paralelo com single, default(shared), taskwait(tudo o que foi usado para paralelizar)</t>
   </si>
   <si>
-    <t>Paralelo com single, default(shared)</t>
-  </si>
-  <si>
     <t>Paralelo com single</t>
   </si>
   <si>
     <t>Paralelo(sem nada)</t>
+  </si>
+  <si>
+    <t>Paralelo com single, taskwait</t>
   </si>
   <si>
     <t>PC Portatil D</t>
@@ -673,7 +673,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -697,34 +697,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.1659999999999996E-3</c:v>
+                  <c:v>1.0591E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8219999999999999E-3</c:v>
+                  <c:v>1.1579000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0140000000000002E-3</c:v>
+                  <c:v>1.0773E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8339999999999998E-3</c:v>
+                  <c:v>1.0263E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8009999999999998E-3</c:v>
+                  <c:v>1.0538E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8050000000000003E-3</c:v>
+                  <c:v>1.0534E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9230000000000003E-3</c:v>
+                  <c:v>1.051E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.796E-3</c:v>
+                  <c:v>1.2206E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8050000000000003E-3</c:v>
+                  <c:v>1.149E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9049999999999997E-3</c:v>
+                  <c:v>1.0227E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,7 +1309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1333,34 +1333,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.738E-3</c:v>
+                  <c:v>4.9699999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2459999999999998E-3</c:v>
+                  <c:v>5.6880000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6029999999999999E-3</c:v>
+                  <c:v>5.0749999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5430000000000001E-3</c:v>
+                  <c:v>5.1130000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9040000000000004E-3</c:v>
+                  <c:v>5.4549999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4250000000000001E-3</c:v>
+                  <c:v>4.8820000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2449999999999996E-3</c:v>
+                  <c:v>5.032E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2240000000000003E-3</c:v>
+                  <c:v>6.8180000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.728E-3</c:v>
+                  <c:v>5.9699999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7930000000000004E-3</c:v>
+                  <c:v>6.2849999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1969,34 +1969,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8730000000000001E-3</c:v>
+                  <c:v>2.8089999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2569999999999999E-3</c:v>
+                  <c:v>2.33E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.696E-3</c:v>
+                  <c:v>2.9197000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8600000000000001E-3</c:v>
+                  <c:v>3.607E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4380000000000001E-3</c:v>
+                  <c:v>2.3679999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6249999999999999E-3</c:v>
+                  <c:v>3.4940000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0509999999999999E-3</c:v>
+                  <c:v>2.287E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0089999999999999E-3</c:v>
+                  <c:v>2.4989999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1259999999999998E-2</c:v>
+                  <c:v>2.5349999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3300000000000001E-3</c:v>
+                  <c:v>2.5639999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,7 +2581,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo com single, default(shared)</c:v>
+                  <c:v>Paralelo com single, taskwait</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2605,34 +2605,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5070000000000001E-3</c:v>
+                  <c:v>2.2850000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.536E-3</c:v>
+                  <c:v>1.482E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2700000000000001E-3</c:v>
+                  <c:v>1.5349999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6419999999999998E-3</c:v>
+                  <c:v>3.042E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.552E-3</c:v>
+                  <c:v>1.4220000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.505E-3</c:v>
+                  <c:v>1.7459999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4649999999999999E-3</c:v>
+                  <c:v>1.441E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.459E-3</c:v>
+                  <c:v>1.766E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.413E-3</c:v>
+                  <c:v>3.6250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5590000000000001E-3</c:v>
+                  <c:v>1.694E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,7 +2689,7 @@
                   <c:v>3.1120000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9659999999999999E-2</c:v>
+                  <c:v>1.966E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.3429999999999996E-3</c:v>
@@ -4442,7 +4442,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Paralelo com single, default(shared)</a:t>
+              <a:t>Paralelo com single, taskwait</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4551,34 +4551,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.1659999999999996E-3</c:v>
+                  <c:v>1.0591E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8219999999999999E-3</c:v>
+                  <c:v>1.1579000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0140000000000002E-3</c:v>
+                  <c:v>1.0773E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8339999999999998E-3</c:v>
+                  <c:v>1.0263E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8009999999999998E-3</c:v>
+                  <c:v>1.0538E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8050000000000003E-3</c:v>
+                  <c:v>1.0534E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9230000000000003E-3</c:v>
+                  <c:v>1.051E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.796E-3</c:v>
+                  <c:v>1.2206E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8050000000000003E-3</c:v>
+                  <c:v>1.149E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9049999999999997E-3</c:v>
+                  <c:v>1.0227E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,34 +4659,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.738E-3</c:v>
+                  <c:v>4.9699999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2459999999999998E-3</c:v>
+                  <c:v>5.6880000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6029999999999999E-3</c:v>
+                  <c:v>5.0749999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5430000000000001E-3</c:v>
+                  <c:v>5.1130000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9040000000000004E-3</c:v>
+                  <c:v>5.4549999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4250000000000001E-3</c:v>
+                  <c:v>4.8820000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2449999999999996E-3</c:v>
+                  <c:v>5.032E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2240000000000003E-3</c:v>
+                  <c:v>6.8180000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.728E-3</c:v>
+                  <c:v>5.9699999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7930000000000004E-3</c:v>
+                  <c:v>6.2849999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4767,34 +4767,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8730000000000001E-3</c:v>
+                  <c:v>2.8089999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2569999999999999E-3</c:v>
+                  <c:v>2.33E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.696E-3</c:v>
+                  <c:v>2.9197000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8600000000000001E-3</c:v>
+                  <c:v>3.607E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4380000000000001E-3</c:v>
+                  <c:v>2.3679999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6249999999999999E-3</c:v>
+                  <c:v>3.4940000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0509999999999999E-3</c:v>
+                  <c:v>2.287E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0089999999999999E-3</c:v>
+                  <c:v>2.4989999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1259999999999998E-2</c:v>
+                  <c:v>2.5349999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3300000000000001E-3</c:v>
+                  <c:v>2.5639999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4875,34 +4875,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5070000000000001E-3</c:v>
+                  <c:v>2.2850000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.536E-3</c:v>
+                  <c:v>1.482E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2700000000000001E-3</c:v>
+                  <c:v>1.5349999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6419999999999998E-3</c:v>
+                  <c:v>3.042E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.552E-3</c:v>
+                  <c:v>1.4220000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.505E-3</c:v>
+                  <c:v>1.7459999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4649999999999999E-3</c:v>
+                  <c:v>1.441E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.459E-3</c:v>
+                  <c:v>1.766E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.413E-3</c:v>
+                  <c:v>3.6250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5590000000000001E-3</c:v>
+                  <c:v>1.694E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5218,15 +5218,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Folha1!$D$35:$M$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Paralelo com single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5301,15 +5326,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Folha1!$D$35:$M$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Paralelo com single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5384,15 +5434,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Folha1!$D$35:$M$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Paralelo com single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5467,15 +5542,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Folha1!$D$35:$M$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Paralelo com single</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+            </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5496,7 +5596,7 @@
                   <c:v>3.1120000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9659999999999999E-2</c:v>
+                  <c:v>1.966E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.3429999999999996E-3</c:v>
@@ -12072,8 +12172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL17" sqref="AL17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD73" sqref="AD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12523,7 +12623,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="3:13" ht="15.75" thickBot="1">
+    <row r="24" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C24" s="3"/>
       <c r="D24" s="14" t="s">
         <v>9</v>
@@ -12551,10 +12651,10 @@
       <c r="L25" s="18"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1">
+    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="C26" s="4"/>
       <c r="D26" s="20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -12571,34 +12671,34 @@
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>8.1659999999999996E-3</v>
+        <v>1.0591E-2</v>
       </c>
       <c r="E27" s="23">
-        <v>6.8219999999999999E-3</v>
+        <v>1.1579000000000001E-2</v>
       </c>
       <c r="F27" s="23">
-        <v>6.0140000000000002E-3</v>
+        <v>1.0773E-2</v>
       </c>
       <c r="G27" s="23">
-        <v>6.8339999999999998E-3</v>
+        <v>1.0263E-2</v>
       </c>
       <c r="H27" s="23">
-        <v>6.8009999999999998E-3</v>
+        <v>1.0538E-2</v>
       </c>
       <c r="I27" s="23">
-        <v>6.8050000000000003E-3</v>
+        <v>1.0534E-2</v>
       </c>
       <c r="J27" s="23">
-        <v>6.9230000000000003E-3</v>
+        <v>1.051E-2</v>
       </c>
       <c r="K27" s="23">
-        <v>6.796E-3</v>
+        <v>1.2206E-2</v>
       </c>
       <c r="L27" s="23">
-        <v>6.8050000000000003E-3</v>
+        <v>1.149E-2</v>
       </c>
       <c r="M27" s="23">
-        <v>6.9049999999999997E-3</v>
+        <v>1.0227E-2</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="15.75" thickBot="1">
@@ -12606,34 +12706,34 @@
         <v>2</v>
       </c>
       <c r="D28" s="11">
-        <v>3.738E-3</v>
+        <v>4.9699999999999996E-3</v>
       </c>
       <c r="E28" s="11">
-        <v>4.2459999999999998E-3</v>
+        <v>5.6880000000000003E-3</v>
       </c>
       <c r="F28" s="11">
-        <v>3.6029999999999999E-3</v>
+        <v>5.0749999999999997E-3</v>
       </c>
       <c r="G28" s="11">
-        <v>3.5430000000000001E-3</v>
+        <v>5.1130000000000004E-3</v>
       </c>
       <c r="H28" s="11">
-        <v>4.9040000000000004E-3</v>
+        <v>5.4549999999999998E-3</v>
       </c>
       <c r="I28" s="11">
-        <v>4.4250000000000001E-3</v>
+        <v>4.8820000000000001E-3</v>
       </c>
       <c r="J28" s="11">
-        <v>4.2449999999999996E-3</v>
+        <v>5.032E-3</v>
       </c>
       <c r="K28" s="11">
-        <v>4.2240000000000003E-3</v>
+        <v>6.8180000000000003E-3</v>
       </c>
       <c r="L28" s="11">
-        <v>3.728E-3</v>
+        <v>5.9699999999999996E-3</v>
       </c>
       <c r="M28" s="11">
-        <v>4.7930000000000004E-3</v>
+        <v>6.2849999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="15.75" thickBot="1">
@@ -12641,34 +12741,34 @@
         <v>3</v>
       </c>
       <c r="D29" s="12">
-        <v>1.8730000000000001E-3</v>
+        <v>2.8089999999999999E-3</v>
       </c>
       <c r="E29" s="12">
-        <v>3.2569999999999999E-3</v>
+        <v>2.33E-3</v>
       </c>
       <c r="F29" s="12">
-        <v>1.696E-3</v>
+        <v>2.9197000000000001E-2</v>
       </c>
       <c r="G29" s="12">
-        <v>1.8600000000000001E-3</v>
+        <v>3.607E-3</v>
       </c>
       <c r="H29" s="12">
-        <v>3.4380000000000001E-3</v>
+        <v>2.3679999999999999E-3</v>
       </c>
       <c r="I29" s="12">
-        <v>1.6249999999999999E-3</v>
+        <v>3.4940000000000001E-3</v>
       </c>
       <c r="J29" s="12">
-        <v>2.0509999999999999E-3</v>
+        <v>2.287E-3</v>
       </c>
       <c r="K29" s="12">
-        <v>2.0089999999999999E-3</v>
+        <v>2.4989999999999999E-3</v>
       </c>
       <c r="L29" s="12">
-        <v>4.1259999999999998E-2</v>
+        <v>2.5349999999999999E-3</v>
       </c>
       <c r="M29" s="12">
-        <v>3.3300000000000001E-3</v>
+        <v>2.5639999999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="15.75" thickBot="1">
@@ -12676,34 +12776,34 @@
         <v>4</v>
       </c>
       <c r="D30" s="13">
-        <v>1.5070000000000001E-3</v>
+        <v>2.2850000000000001E-3</v>
       </c>
       <c r="E30" s="13">
-        <v>1.536E-3</v>
+        <v>1.482E-3</v>
       </c>
       <c r="F30" s="13">
-        <v>1.2700000000000001E-3</v>
+        <v>1.5349999999999999E-3</v>
       </c>
       <c r="G30" s="13">
-        <v>2.6419999999999998E-3</v>
+        <v>3.042E-3</v>
       </c>
       <c r="H30" s="13">
-        <v>1.552E-3</v>
+        <v>1.4220000000000001E-3</v>
       </c>
       <c r="I30" s="13">
-        <v>1.505E-3</v>
+        <v>1.7459999999999999E-3</v>
       </c>
       <c r="J30" s="13">
-        <v>1.4649999999999999E-3</v>
+        <v>1.441E-3</v>
       </c>
       <c r="K30" s="13">
-        <v>1.459E-3</v>
+        <v>1.766E-3</v>
       </c>
       <c r="L30" s="13">
-        <v>1.413E-3</v>
+        <v>3.6250000000000002E-3</v>
       </c>
       <c r="M30" s="13">
-        <v>1.5590000000000001E-3</v>
+        <v>1.694E-3</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="15.75" thickBot="1">
@@ -12763,7 +12863,7 @@
     <row r="35" spans="3:13" ht="15.75" thickBot="1">
       <c r="C35" s="4"/>
       <c r="D35" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -12897,7 +12997,7 @@
         <v>3.1120000000000002E-3</v>
       </c>
       <c r="H39" s="13">
-        <v>2.9659999999999999E-2</v>
+        <v>1.966E-2</v>
       </c>
       <c r="I39" s="13">
         <v>4.3429999999999996E-3</v>
@@ -12972,7 +13072,7 @@
     <row r="44" spans="3:13" ht="15.75" thickBot="1">
       <c r="C44" s="4"/>
       <c r="D44" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
